--- a/Gantt_Chart_MS_Research.xlsx
+++ b/Gantt_Chart_MS_Research.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Planner" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Project Planner" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'Project Planner'!$3:$4</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">Micro Frontend in Cloud-based Application</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">Develop &amp; test the demo application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">Collect the research questions results</t>
@@ -888,6 +891,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -896,8 +1005,8 @@
   </sheetPr>
   <dimension ref="B1:BO1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AS2" activeCellId="0" sqref="AS2"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM2" activeCellId="0" sqref="BM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.734375" defaultRowHeight="30" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1222,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="26" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G5" s="27" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1242,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="26" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G6" s="27" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1282,10 +1391,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="26" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G8" s="27" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1302,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="27" t="n">
         <v>1</v>
-      </c>
-      <c r="G9" s="27" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1318,15 +1427,19 @@
       <c r="D10" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="G10" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="26" t="n">
         <v>11</v>
@@ -1334,15 +1447,19 @@
       <c r="D11" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="26" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" s="26" t="n">
+        <v>15</v>
+      </c>
       <c r="G11" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="26" t="n">
         <v>17</v>
@@ -1350,15 +1467,19 @@
       <c r="D12" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="F12" s="26" t="n">
+        <v>10</v>
+      </c>
       <c r="G12" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="26" t="n">
         <v>22</v>
@@ -1366,15 +1487,19 @@
       <c r="D13" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="26" t="n">
+        <v>35</v>
+      </c>
+      <c r="F13" s="26" t="n">
+        <v>10</v>
+      </c>
       <c r="G13" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="26" t="n">
         <v>27</v>
@@ -1382,10 +1507,14 @@
       <c r="D14" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="26" t="n">
+        <v>45</v>
+      </c>
+      <c r="F14" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="G14" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
